--- a/code/qnn/lists/Table_average_score_circuits.xlsx
+++ b/code/qnn/lists/Table_average_score_circuits.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phuber/git/ZHAW/BA/Quantum-Machine-Learning/code/qnn/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD047319-E424-0D4D-B8A5-C7A1EB2B6CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0EDF1C-04D9-FE41-A8C5-0E7D5B0131BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42400" yWindow="540" windowWidth="22740" windowHeight="20840" xr2:uid="{1D4416CE-CC30-434D-BA8C-02CDBF6B1B8E}"/>
+    <workbookView xWindow="47400" yWindow="500" windowWidth="27520" windowHeight="21100" activeTab="1" xr2:uid="{1D4416CE-CC30-434D-BA8C-02CDBF6B1B8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataset1" sheetId="1" r:id="rId1"/>
+    <sheet name="binary datasets" sheetId="1" r:id="rId1"/>
+    <sheet name="extended datasets" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="28">
   <si>
     <t>Adhoc</t>
   </si>
@@ -157,6 +158,15 @@
       <t xml:space="preserve"> (evaluation)</t>
     </r>
   </si>
+  <si>
+    <t>Dataset: Extended Dataset</t>
+  </si>
+  <si>
+    <t>#Records: 1000</t>
+  </si>
+  <si>
+    <t>#150 Iris (3 classes)</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +232,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +272,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -372,12 +394,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,10 +441,26 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AFE282-4857-D04D-9C09-9754DA10D3C1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,36 +811,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="O1" s="20" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="O1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
-      <c r="V1" s="26" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+      <c r="V1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="28"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -847,7 +897,7 @@
       <c r="T2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="W2" s="11" t="s">
@@ -858,7 +908,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -876,7 +926,7 @@
       <c r="F3">
         <v>0.495</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -894,7 +944,11 @@
       <c r="M3" s="9">
         <v>0.72</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="N3" s="40">
+        <f>AVERAGE(J3:M3)</f>
+        <v>0.66124999999999967</v>
+      </c>
+      <c r="O3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
@@ -912,7 +966,11 @@
       <c r="T3" s="9">
         <v>0.71499999999999997</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="U3" s="40">
+        <f>AVERAGE(Q3:T3)</f>
+        <v>0.65499999999999992</v>
+      </c>
+      <c r="V3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="W3" s="8">
@@ -925,7 +983,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -941,7 +999,7 @@
       <c r="F4">
         <v>0.52</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="8" t="s">
         <v>7</v>
       </c>
@@ -954,17 +1012,21 @@
       <c r="L4" s="8">
         <v>0.65</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="20">
         <v>0.8</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="N4" s="41">
+        <f t="shared" ref="N4:N7" si="0">AVERAGE(J4:M4)</f>
+        <v>0.73625000000000007</v>
+      </c>
+      <c r="O4" s="26"/>
       <c r="P4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="8">
         <v>0.745</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="21">
         <v>0.745</v>
       </c>
       <c r="S4" s="8">
@@ -973,7 +1035,11 @@
       <c r="T4" s="9">
         <v>0.71499999999999997</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="U4" s="41">
+        <f t="shared" ref="U4:U7" si="1">AVERAGE(Q4:T4)</f>
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="V4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="W4" s="8">
@@ -986,7 +1052,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1068,7 @@
       <c r="F5">
         <v>0.505</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1084,11 @@
       <c r="M5" s="9">
         <v>0.65</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="N5" s="40">
+        <f t="shared" si="0"/>
+        <v>0.67874999999999996</v>
+      </c>
+      <c r="O5" s="26"/>
       <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1104,11 @@
       <c r="T5" s="9">
         <v>0.71499999999999997</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="U5" s="40">
+        <f t="shared" si="1"/>
+        <v>0.68749999999999978</v>
+      </c>
+      <c r="V5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="W5" s="8">
@@ -1047,7 +1121,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1137,7 @@
       <c r="F6">
         <v>0.48</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1153,11 @@
       <c r="M6" s="9">
         <v>0.65</v>
       </c>
-      <c r="O6" s="19"/>
+      <c r="N6" s="40">
+        <f t="shared" si="0"/>
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="O6" s="26"/>
       <c r="P6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1173,11 @@
       <c r="T6" s="9">
         <v>0.65</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="U6" s="40">
+        <f t="shared" si="1"/>
+        <v>0.65125</v>
+      </c>
+      <c r="V6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="8">
@@ -1108,7 +1190,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="24"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1206,7 @@
       <c r="F7">
         <v>0.52</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1222,11 @@
       <c r="M7" s="9">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="N7" s="40">
+        <f t="shared" si="0"/>
+        <v>0.65499999999999992</v>
+      </c>
+      <c r="O7" s="26"/>
       <c r="P7" s="8" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1242,11 @@
       <c r="T7" s="9">
         <v>0.71499999999999997</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="40">
+        <f t="shared" si="1"/>
+        <v>0.65875000000000006</v>
+      </c>
+      <c r="V7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="W7" s="8">
@@ -1177,18 +1267,20 @@
         <v>0.51899999999999991</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:F8" si="0">AVERAGE(D3:D7)</f>
+        <f t="shared" ref="D8:F8" si="2">AVERAGE(D3:D7)</f>
         <v>0.52100000000000013</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.504</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="45">
+        <v>2</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1197,18 +1289,20 @@
         <v>0.65399999999999969</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" ref="K8:M8" si="1">AVERAGE(K3:K7)</f>
+        <f t="shared" ref="K8:M8" si="3">AVERAGE(K3:K7)</f>
         <v>0.70099999999999996</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65300000000000002</v>
       </c>
-      <c r="M8" s="12">
-        <f t="shared" si="1"/>
+      <c r="M8" s="36">
+        <f t="shared" si="3"/>
         <v>0.70699999999999996</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="45">
+        <v>2</v>
+      </c>
       <c r="P8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1217,25 +1311,25 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="R8" s="11">
-        <f t="shared" ref="R8:T8" si="2">AVERAGE(R3:R7)</f>
+        <f t="shared" ref="R8:T8" si="4">AVERAGE(R3:R7)</f>
         <v>0.68300000000000005</v>
       </c>
       <c r="S8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65399999999999969</v>
       </c>
-      <c r="T8" s="12">
-        <f t="shared" si="2"/>
+      <c r="T8" s="36">
+        <f t="shared" si="4"/>
         <v>0.70199999999999996</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="13">
         <f>AVERAGE(W3:W7)</f>
         <v>0.85799999999999998</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <f>AVERAGE(X3:X7)</f>
         <v>0.84699999999999986</v>
       </c>
@@ -1317,7 +1411,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -1335,7 +1429,7 @@
       <c r="F11">
         <v>0.41499999999999998</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1353,7 +1447,11 @@
       <c r="M11" s="9">
         <v>0.62999999999999901</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="N11" s="40">
+        <f>AVERAGE(J11:M11)</f>
+        <v>0.59874999999999967</v>
+      </c>
+      <c r="O11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P11" s="8" t="s">
@@ -1371,9 +1469,13 @@
       <c r="T11" s="9">
         <v>0.625</v>
       </c>
+      <c r="U11" s="40">
+        <f>AVERAGE(Q11:T11)</f>
+        <v>0.60999999999999954</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
+      <c r="A12" s="24"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1491,7 @@
       <c r="F12">
         <v>0.42499999999999999</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="8" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1507,11 @@
       <c r="M12" s="9">
         <v>0.60499999999999898</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="N12" s="40">
+        <f t="shared" ref="N12:N15" si="5">AVERAGE(J12:M12)</f>
+        <v>0.58624999999999972</v>
+      </c>
+      <c r="O12" s="26"/>
       <c r="P12" s="8" t="s">
         <v>7</v>
       </c>
@@ -1421,12 +1527,16 @@
       <c r="T12" s="9">
         <v>0.619999999999999</v>
       </c>
+      <c r="U12" s="40">
+        <f t="shared" ref="U12:U15" si="6">AVERAGE(Q12:T12)</f>
+        <v>0.58749999999999969</v>
+      </c>
       <c r="V12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="24"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1552,7 @@
       <c r="F13">
         <v>0.47</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="8" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1568,11 @@
       <c r="M13" s="9">
         <v>0.7</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="N13" s="41">
+        <f t="shared" si="5"/>
+        <v>0.63624999999999998</v>
+      </c>
+      <c r="O13" s="26"/>
       <c r="P13" s="8" t="s">
         <v>8</v>
       </c>
@@ -1474,12 +1588,16 @@
       <c r="T13" s="9">
         <v>0.64</v>
       </c>
+      <c r="U13" s="41">
+        <f t="shared" si="6"/>
+        <v>0.61250000000000004</v>
+      </c>
       <c r="V13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1613,7 @@
       <c r="F14">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="8" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1629,11 @@
       <c r="M14" s="9">
         <v>0.52</v>
       </c>
-      <c r="O14" s="19"/>
+      <c r="N14" s="40">
+        <f t="shared" si="5"/>
+        <v>0.54874999999999952</v>
+      </c>
+      <c r="O14" s="26"/>
       <c r="P14" s="8" t="s">
         <v>9</v>
       </c>
@@ -1527,9 +1649,13 @@
       <c r="T14" s="9">
         <v>0.5</v>
       </c>
+      <c r="U14" s="40">
+        <f t="shared" si="6"/>
+        <v>0.53374999999999972</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="24"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1671,7 @@
       <c r="F15">
         <v>0.44</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1558,10 +1684,14 @@
       <c r="L15" s="8">
         <v>0.61499999999999999</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="20">
         <v>0.74</v>
       </c>
-      <c r="O15" s="19"/>
+      <c r="N15" s="40">
+        <f t="shared" si="5"/>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="O15" s="26"/>
       <c r="P15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1574,8 +1704,12 @@
       <c r="S15" s="8">
         <v>0.62</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="22">
         <v>0.75</v>
+      </c>
+      <c r="U15" s="40">
+        <f t="shared" si="6"/>
+        <v>0.61124999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -1598,7 +1732,9 @@
         <f>AVERAGE(F11:F15)</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="45">
+        <v>3</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1614,11 +1750,13 @@
         <f>AVERAGE(L11:L15)</f>
         <v>0.57300000000000006</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="36">
         <f>AVERAGE(M11:M15)</f>
         <v>0.63899999999999968</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="45">
+        <v>3</v>
+      </c>
       <c r="P16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1634,12 +1772,12 @@
         <f>AVERAGE(S11:S15)</f>
         <v>0.56600000000000006</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="36">
         <f>AVERAGE(T11:T15)</f>
         <v>0.62699999999999978</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1658,7 +1796,7 @@
       <c r="S17" s="11"/>
       <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1714,8 +1852,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -1733,7 +1871,7 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1751,7 +1889,11 @@
       <c r="M19" s="9">
         <v>1</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="N19" s="40">
+        <f>AVERAGE(J19:M19)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="8" t="s">
@@ -1769,9 +1911,13 @@
       <c r="T19" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="U19" s="40">
+        <f>AVERAGE(Q19:T19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1787,7 +1933,7 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="8" t="s">
         <v>7</v>
       </c>
@@ -1803,7 +1949,11 @@
       <c r="M20" s="9">
         <v>1</v>
       </c>
-      <c r="O20" s="19"/>
+      <c r="N20" s="40">
+        <f t="shared" ref="N20:N23" si="7">AVERAGE(J20:M20)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="26"/>
       <c r="P20" s="8" t="s">
         <v>7</v>
       </c>
@@ -1819,9 +1969,13 @@
       <c r="T20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="U20" s="40">
+        <f t="shared" ref="U20:U23" si="8">AVERAGE(Q20:T20)</f>
+        <v>0.96624999999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1991,7 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="8" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +2007,11 @@
       <c r="M21" s="9">
         <v>1</v>
       </c>
-      <c r="O21" s="19"/>
+      <c r="N21" s="40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="26"/>
       <c r="P21" s="8" t="s">
         <v>8</v>
       </c>
@@ -1869,9 +2027,13 @@
       <c r="T21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="U21" s="40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -1887,7 +2049,7 @@
       <c r="F22">
         <v>0.755</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +2065,11 @@
       <c r="M22" s="9">
         <v>1</v>
       </c>
-      <c r="O22" s="19"/>
+      <c r="N22" s="40">
+        <f t="shared" si="7"/>
+        <v>0.95874999999999977</v>
+      </c>
+      <c r="O22" s="26"/>
       <c r="P22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1919,9 +2085,13 @@
       <c r="T22" s="9">
         <v>0.80500000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="U22" s="40">
+        <f t="shared" si="8"/>
+        <v>0.91124999999999978</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
       <c r="B23" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +2107,7 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1953,7 +2123,11 @@
       <c r="M23" s="9">
         <v>1</v>
       </c>
-      <c r="O23" s="19"/>
+      <c r="N23" s="40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="26"/>
       <c r="P23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1969,69 +2143,73 @@
       <c r="T23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="40">
+        <f t="shared" si="8"/>
+        <v>0.96625000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24" si="3">AVERAGE(C19:C23)</f>
+        <f t="shared" ref="C24" si="9">AVERAGE(C19:C23)</f>
         <v>0.95899999999999996</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24" si="4">AVERAGE(D19:D23)</f>
+        <f t="shared" ref="D24" si="10">AVERAGE(D19:D23)</f>
         <v>0.93300000000000005</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24" si="5">AVERAGE(E19:E23)</f>
+        <f t="shared" ref="E24" si="11">AVERAGE(E19:E23)</f>
         <v>0.96500000000000008</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F24" si="6">AVERAGE(F19:F23)</f>
+        <f t="shared" ref="F24" si="12">AVERAGE(F19:F23)</f>
         <v>0.95099999999999996</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="11">
-        <f t="shared" ref="J24:M24" si="7">AVERAGE(J19:J23)</f>
+      <c r="J24" s="37">
+        <f t="shared" ref="J24:M24" si="13">AVERAGE(J19:J23)</f>
         <v>1</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.97699999999999998</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.98999999999999988</v>
       </c>
-      <c r="M24" s="12">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10"/>
+      <c r="M24" s="36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="45"/>
       <c r="P24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" ref="Q24:T24" si="8">AVERAGE(Q19:Q23)</f>
+        <f t="shared" ref="Q24:T24" si="14">AVERAGE(Q19:Q23)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.94699999999999984</v>
       </c>
-      <c r="S24" s="11">
-        <f t="shared" si="8"/>
+      <c r="S24" s="37">
+        <f t="shared" si="14"/>
         <v>0.99099999999999988</v>
       </c>
       <c r="T24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2050,7 +2228,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -2106,8 +2284,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
@@ -2125,7 +2303,7 @@
       <c r="F27">
         <v>0.60499999999999998</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="26" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -2143,7 +2321,11 @@
       <c r="M27" s="9">
         <v>0.73</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="N27" s="40">
+        <f>AVERAGE(J27:M27)</f>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="O27" s="26" t="s">
         <v>15</v>
       </c>
       <c r="P27" s="8" t="s">
@@ -2161,9 +2343,13 @@
       <c r="T27" s="9">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="U27" s="40">
+        <f>AVERAGE(Q27:T27)</f>
+        <v>0.61749999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2365,7 @@
       <c r="F28">
         <v>0.6</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="8" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2381,11 @@
       <c r="M28" s="9">
         <v>0.69499999999999995</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="N28" s="40">
+        <f t="shared" ref="N28:N31" si="15">AVERAGE(J28:M28)</f>
+        <v>0.69249999999999978</v>
+      </c>
+      <c r="O28" s="26"/>
       <c r="P28" s="8" t="s">
         <v>7</v>
       </c>
@@ -2211,9 +2401,13 @@
       <c r="T28" s="9">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="U28" s="41">
+        <f t="shared" ref="U28:U31" si="16">AVERAGE(Q28:T28)</f>
+        <v>0.68125000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -2229,7 +2423,7 @@
       <c r="F29">
         <v>0.62</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="8" t="s">
         <v>8</v>
       </c>
@@ -2245,14 +2439,18 @@
       <c r="M29" s="9">
         <v>0.72</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="N29" s="41">
+        <f t="shared" si="15"/>
+        <v>0.72499999999999964</v>
+      </c>
+      <c r="O29" s="26"/>
       <c r="P29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="8">
         <v>0.59499999999999997</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="21">
         <v>0.79</v>
       </c>
       <c r="S29" s="8">
@@ -2261,9 +2459,13 @@
       <c r="T29" s="9">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="U29" s="40">
+        <f t="shared" si="16"/>
+        <v>0.66999999999999971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2481,7 @@
       <c r="F30">
         <v>0.49</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="8" t="s">
         <v>9</v>
       </c>
@@ -2289,13 +2491,17 @@
       <c r="K30" s="8">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="21">
         <v>0.82499999999999996</v>
       </c>
       <c r="M30" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O30" s="19"/>
+      <c r="N30" s="40">
+        <f t="shared" si="15"/>
+        <v>0.58374999999999999</v>
+      </c>
+      <c r="O30" s="26"/>
       <c r="P30" s="8" t="s">
         <v>9</v>
       </c>
@@ -2311,9 +2517,13 @@
       <c r="T30" s="9">
         <v>0.55499999999999905</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="U30" s="40">
+        <f t="shared" si="16"/>
+        <v>0.5662499999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -2329,7 +2539,7 @@
       <c r="F31">
         <v>0.63</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="8" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +2555,11 @@
       <c r="M31" s="9">
         <v>0.68500000000000005</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="N31" s="40">
+        <f t="shared" si="15"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="O31" s="26"/>
       <c r="P31" s="8" t="s">
         <v>10</v>
       </c>
@@ -2361,69 +2575,77 @@
       <c r="T31" s="9">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="40">
+        <f t="shared" si="16"/>
+        <v>0.59500000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32" si="9">AVERAGE(C27:C31)</f>
+        <f t="shared" ref="C32" si="17">AVERAGE(C27:C31)</f>
         <v>0.56799999999999995</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32" si="10">AVERAGE(D27:D31)</f>
+        <f t="shared" ref="D32" si="18">AVERAGE(D27:D31)</f>
         <v>0.59499999999999997</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E32" si="11">AVERAGE(E27:E31)</f>
+        <f t="shared" ref="E32" si="19">AVERAGE(E27:E31)</f>
         <v>0.6170000000000001</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ref="F32" si="12">AVERAGE(F27:F31)</f>
+        <f t="shared" ref="F32" si="20">AVERAGE(F27:F31)</f>
         <v>0.58900000000000008</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="45">
+        <v>3</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" ref="J32:M32" si="13">AVERAGE(J27:J31)</f>
+        <f t="shared" ref="J32:M32" si="21">AVERAGE(J27:J31)</f>
         <v>0.59299999999999975</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.65900000000000003</v>
       </c>
-      <c r="L32" s="11">
-        <f t="shared" si="13"/>
+      <c r="L32" s="37">
+        <f t="shared" si="21"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="45">
+        <v>2</v>
+      </c>
       <c r="P32" s="11" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" ref="Q32:T32" si="14">AVERAGE(Q27:Q31)</f>
+        <f t="shared" ref="Q32:T32" si="22">AVERAGE(Q27:Q31)</f>
         <v>0.57800000000000007</v>
       </c>
       <c r="R32" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.59800000000000009</v>
       </c>
-      <c r="S32" s="11">
-        <f t="shared" si="14"/>
+      <c r="S32" s="37">
+        <f t="shared" si="22"/>
         <v>0.71699999999999986</v>
       </c>
       <c r="T32" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.61099999999999988</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2442,7 +2664,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="12"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -2498,8 +2720,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B35" t="s">
@@ -2517,7 +2739,7 @@
       <c r="F35">
         <v>0.64</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="26" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="8" t="s">
@@ -2535,7 +2757,11 @@
       <c r="M35" s="9">
         <v>0.8</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="N35" s="41">
+        <f>AVERAGE(J35:M35)</f>
+        <v>0.81624999999999992</v>
+      </c>
+      <c r="O35" s="26" t="s">
         <v>16</v>
       </c>
       <c r="P35" s="8" t="s">
@@ -2553,9 +2779,13 @@
       <c r="T35" s="9">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
+      <c r="U35" s="40">
+        <f>AVERAGE(Q35:T35)</f>
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2801,7 @@
       <c r="F36">
         <v>0.60499999999999998</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="8" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2817,11 @@
       <c r="M36" s="9">
         <v>0.65</v>
       </c>
-      <c r="O36" s="19"/>
+      <c r="N36" s="40">
+        <f t="shared" ref="N36:N39" si="23">AVERAGE(J36:M36)</f>
+        <v>0.73249999999999982</v>
+      </c>
+      <c r="O36" s="26"/>
       <c r="P36" s="8" t="s">
         <v>7</v>
       </c>
@@ -2603,9 +2837,13 @@
       <c r="T36" s="9">
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="U36" s="40">
+        <f t="shared" ref="U36:U39" si="24">AVERAGE(Q36:T36)</f>
+        <v>0.74124999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -2621,7 +2859,7 @@
       <c r="F37">
         <v>0.6</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="8" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2875,11 @@
       <c r="M37" s="9">
         <v>0.79</v>
       </c>
-      <c r="O37" s="19"/>
+      <c r="N37" s="40">
+        <f t="shared" si="23"/>
+        <v>0.77375000000000005</v>
+      </c>
+      <c r="O37" s="26"/>
       <c r="P37" s="8" t="s">
         <v>8</v>
       </c>
@@ -2653,9 +2895,13 @@
       <c r="T37" s="9">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
+      <c r="U37" s="41">
+        <f t="shared" si="24"/>
+        <v>0.76624999999999976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -2671,7 +2917,7 @@
       <c r="F38">
         <v>0.56499999999999995</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="8" t="s">
         <v>9</v>
       </c>
@@ -2684,10 +2930,14 @@
       <c r="L38" s="8">
         <v>0.75</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="22">
         <v>0.92500000000000004</v>
       </c>
-      <c r="O38" s="19"/>
+      <c r="N38" s="40">
+        <f t="shared" si="23"/>
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="O38" s="26"/>
       <c r="P38" s="8" t="s">
         <v>9</v>
       </c>
@@ -2700,12 +2950,16 @@
       <c r="S38" s="8">
         <v>0.75</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="22">
         <v>0.94999999999999896</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="U38" s="40">
+        <f t="shared" si="24"/>
+        <v>0.74874999999999947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +2975,7 @@
       <c r="F39">
         <v>0.61499999999999999</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="8" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +2991,11 @@
       <c r="M39" s="9">
         <v>0.69</v>
       </c>
-      <c r="O39" s="19"/>
+      <c r="N39" s="40">
+        <f t="shared" si="23"/>
+        <v>0.74624999999999975</v>
+      </c>
+      <c r="O39" s="26"/>
       <c r="P39" s="8" t="s">
         <v>10</v>
       </c>
@@ -2753,70 +3011,83 @@
       <c r="T39" s="9">
         <v>0.73499999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="40">
+        <f t="shared" si="24"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" ref="C40" si="15">AVERAGE(C35:C39)</f>
+        <f t="shared" ref="C40" si="25">AVERAGE(C35:C39)</f>
         <v>0.61699999999999999</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ref="D40" si="16">AVERAGE(D35:D39)</f>
+        <f t="shared" ref="D40" si="26">AVERAGE(D35:D39)</f>
         <v>0.60199999999999998</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ref="E40" si="17">AVERAGE(E35:E39)</f>
+        <f t="shared" ref="E40" si="27">AVERAGE(E35:E39)</f>
         <v>0.63900000000000001</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ref="F40" si="18">AVERAGE(F35:F39)</f>
+        <f t="shared" ref="F40" si="28">AVERAGE(F35:F39)</f>
         <v>0.60500000000000009</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14" t="s">
+      <c r="H40" s="44">
+        <v>1</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="14">
-        <f t="shared" ref="J40:M40" si="19">AVERAGE(J35:J39)</f>
+      <c r="J40" s="38">
+        <f t="shared" ref="J40:M40" si="29">AVERAGE(J35:J39)</f>
         <v>0.80199999999999982</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <f>AVERAGE(K35:K39)</f>
         <v>0.68699999999999972</v>
       </c>
-      <c r="L40" s="14">
-        <f t="shared" si="19"/>
+      <c r="L40" s="13">
+        <f t="shared" si="29"/>
         <v>0.79600000000000004</v>
       </c>
-      <c r="M40" s="15">
-        <f t="shared" si="19"/>
+      <c r="M40" s="14">
+        <f t="shared" si="29"/>
         <v>0.77100000000000002</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="14" t="s">
+      <c r="O40" s="44">
+        <v>3</v>
+      </c>
+      <c r="P40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="14">
-        <f t="shared" ref="Q40:T40" si="20">AVERAGE(Q35:Q39)</f>
+      <c r="Q40" s="13">
+        <f t="shared" ref="Q40:T40" si="30">AVERAGE(Q35:Q39)</f>
         <v>0.7699999999999998</v>
       </c>
-      <c r="R40" s="14">
-        <f t="shared" si="20"/>
+      <c r="R40" s="13">
+        <f t="shared" si="30"/>
         <v>0.70399999999999974</v>
       </c>
-      <c r="S40" s="14">
-        <f t="shared" si="20"/>
+      <c r="S40" s="13">
+        <f t="shared" si="30"/>
         <v>0.71100000000000008</v>
       </c>
-      <c r="T40" s="15">
-        <f t="shared" si="20"/>
+      <c r="T40" s="39">
+        <f t="shared" si="30"/>
         <v>0.77999999999999969</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H27:H31"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="O3:O7"/>
@@ -2830,14 +3101,1953 @@
     <mergeCell ref="O35:O39"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="H27:H31"/>
     <mergeCell ref="H35:H39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EA523C-F266-314D-BC10-43FDC2C9456D}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:X40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="O1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+      <c r="V1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="34"/>
+      <c r="X1" s="35"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="N3" s="40">
+        <f>AVERAGE(J3:M3)</f>
+        <v>0.51186666666666658</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9">
+        <v>0.501</v>
+      </c>
+      <c r="U3" s="41">
+        <f>AVERAGE(Q3:T3)</f>
+        <v>0.52733333333333332</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <f>MAX(J3:M7)</f>
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="X3" s="9">
+        <f>MAX(Q3:T7)</f>
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.5179999999999999</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N4" s="40">
+        <f t="shared" ref="N4:N7" si="0">AVERAGE(J4:M4)</f>
+        <v>0.52599999999999991</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.48650000000000004</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9">
+        <v>0.51550000000000007</v>
+      </c>
+      <c r="U4" s="40">
+        <f t="shared" ref="U4:U7" si="1">AVERAGE(Q4:T4)</f>
+        <v>0.49633333333333335</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="8">
+        <f>MAX(J11:M15)</f>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="X4" s="9">
+        <f>MAX(Q11:T15)</f>
+        <v>0.55750000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.49850000000000005</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9">
+        <v>0.53350000000000009</v>
+      </c>
+      <c r="N5" s="40">
+        <f t="shared" si="0"/>
+        <v>0.52233333333333343</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="9">
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="U5" s="40">
+        <f t="shared" si="1"/>
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="8">
+        <f>MAX(J19:M23)</f>
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="X5" s="9">
+        <f>MAX(Q19:T23)</f>
+        <v>0.94333333333333302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N6" s="40">
+        <f t="shared" si="0"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="9">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="U6" s="40">
+        <f t="shared" si="1"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="8">
+        <f>MAX(J27:M31)</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="X6" s="9">
+        <f>MAX(Q27:T31)</f>
+        <v>0.53050000000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.54050000000000009</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.56749999999999989</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="20">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="N7" s="41">
+        <f t="shared" si="0"/>
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.505</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="U7" s="40">
+        <f t="shared" si="1"/>
+        <v>0.49683333333333329</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="8">
+        <f>MAX(J35:M39)</f>
+        <v>0.86349999999999993</v>
+      </c>
+      <c r="X7" s="9">
+        <f>MAX(Q35:T39)</f>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="e">
+        <f>AVERAGE(C3:C7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="1" t="e">
+        <f t="shared" ref="D8:F8" si="2">AVERAGE(D3:D7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="42">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="11">
+        <f>AVERAGE(J3:J7)</f>
+        <v>0.51740000000000008</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" ref="K8:M8" si="3">AVERAGE(K3:K7)</f>
+        <v>0.53652</v>
+      </c>
+      <c r="L8" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="O8" s="42">
+        <v>1</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="11">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>0.50429999999999997</v>
+      </c>
+      <c r="R8" s="37">
+        <f t="shared" ref="R8:T8" si="4">AVERAGE(R3:R7)</f>
+        <v>0.51079999999999992</v>
+      </c>
+      <c r="S8" s="11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="4"/>
+        <v>0.50710000000000011</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" s="13">
+        <f>AVERAGE(W3:W7)</f>
+        <v>0.72786666666666666</v>
+      </c>
+      <c r="X8" s="14">
+        <f>AVERAGE(X3:X7)</f>
+        <v>0.63146666666666662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.53350000000000009</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.52549999999999986</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9">
+        <v>0.53050000000000019</v>
+      </c>
+      <c r="N11" s="40">
+        <f>AVERAGE(J11:M11)</f>
+        <v>0.52983333333333338</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0.48549999999999993</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9">
+        <v>0.45949999999999996</v>
+      </c>
+      <c r="U11" s="40">
+        <f>AVERAGE(Q11:T11)</f>
+        <v>0.48383333333333328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" ref="N12:N15" si="5">AVERAGE(J12:M12)</f>
+        <v>0.53433333333333333</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.48450000000000004</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.4910000000000001</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9">
+        <v>0.46749999999999997</v>
+      </c>
+      <c r="U12" s="40">
+        <f t="shared" ref="U12:U15" si="6">AVERAGE(Q12:T12)</f>
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="5"/>
+        <v>0.51983333333333326</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.53850000000000009</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="U13" s="41">
+        <f t="shared" si="6"/>
+        <v>0.52950000000000008</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="5"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="U14" s="40">
+        <f t="shared" si="6"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.52650000000000008</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="N15" s="41">
+        <f t="shared" si="5"/>
+        <v>0.53933333333333333</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>0.55750000000000011</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9">
+        <v>0.496</v>
+      </c>
+      <c r="U15" s="40">
+        <f t="shared" si="6"/>
+        <v>0.50250000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="e">
+        <f>AVERAGE(C11:C15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="1" t="e">
+        <f>AVERAGE(D11:D15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="1" t="e">
+        <f>AVERAGE(E11:E15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="1" t="e">
+        <f>AVERAGE(F11:F15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="42">
+        <v>5</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="37">
+        <f>AVERAGE(J11:J15)</f>
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="K16" s="11">
+        <f>AVERAGE(K11:K15)</f>
+        <v>0.52529999999999988</v>
+      </c>
+      <c r="L16" s="11" t="e">
+        <f>AVERAGE(L11:L15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="12">
+        <f>AVERAGE(M11:M15)</f>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="O16" s="42">
+        <v>3</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="37">
+        <f>AVERAGE(Q11:Q15)</f>
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="R16" s="11">
+        <f>AVERAGE(R11:R15)</f>
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="S16" s="11" t="e">
+        <f>AVERAGE(S11:S15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="12">
+        <f>AVERAGE(T11:T15)</f>
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="N19" s="41">
+        <f>AVERAGE(J19:M19)</f>
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.85666666666666613</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9">
+        <v>0.90999999999999981</v>
+      </c>
+      <c r="U19" s="40">
+        <f>AVERAGE(Q19:T19)</f>
+        <v>0.89222222222222192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.90333333333333354</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9">
+        <v>0.92999999999999972</v>
+      </c>
+      <c r="N20" s="40">
+        <f t="shared" ref="N20:N23" si="7">AVERAGE(J20:M20)</f>
+        <v>0.92222222222222205</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>0.94333333333333302</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0.91666666666666641</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9">
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="U20" s="41">
+        <f t="shared" ref="U20:U23" si="8">AVERAGE(Q20:T20)</f>
+        <v>0.8999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.75666666666666593</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="7"/>
+        <v>0.76333333333333309</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.70333333333333337</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0.72999999999999932</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9">
+        <v>0.76999999999999935</v>
+      </c>
+      <c r="U21" s="40">
+        <f t="shared" si="8"/>
+        <v>0.73444444444444412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.90666666666666662</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.87666666666666637</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="40">
+        <f t="shared" si="7"/>
+        <v>0.89444444444444438</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.89999999999999969</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="U22" s="40">
+        <f t="shared" si="8"/>
+        <v>0.88888888888888851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.73666666666666614</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.79333333333333311</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="7"/>
+        <v>0.77666666666666639</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.70999999999999941</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.76999999999999935</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9">
+        <v>0.76333333333333298</v>
+      </c>
+      <c r="U23" s="40">
+        <f t="shared" si="8"/>
+        <v>0.7477777777777771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="e">
+        <f t="shared" ref="C24:F24" si="9">AVERAGE(C19:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="1" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="42">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" ref="J24:M24" si="10">AVERAGE(J19:J23)</f>
+        <v>0.84266666666666645</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="10"/>
+        <v>0.85866666666666647</v>
+      </c>
+      <c r="L24" s="11" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="36">
+        <f t="shared" si="10"/>
+        <v>0.8726666666666667</v>
+      </c>
+      <c r="O24" s="42">
+        <v>2</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" ref="Q24:T24" si="11">AVERAGE(Q19:Q23)</f>
+        <v>0.82266666666666632</v>
+      </c>
+      <c r="R24" s="37">
+        <f t="shared" si="11"/>
+        <v>0.83866666666666634</v>
+      </c>
+      <c r="S24" s="11" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="11"/>
+        <v>0.83666666666666634</v>
+      </c>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="12"/>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.65750000000000008</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="N27" s="40">
+        <f>AVERAGE(J27:M27)</f>
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="9">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="U27" s="40">
+        <f>AVERAGE(Q27:T27)</f>
+        <v>0.49016666666666664</v>
+      </c>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.64449999999999996</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9">
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="N28" s="40">
+        <f t="shared" ref="N28:N31" si="12">AVERAGE(J28:M28)</f>
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="9">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="U28" s="40">
+        <f t="shared" ref="U28:U31" si="13">AVERAGE(Q28:T28)</f>
+        <v>0.49416666666666664</v>
+      </c>
+      <c r="V28" s="8"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.66050000000000009</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="N29" s="41">
+        <f t="shared" si="12"/>
+        <v>0.67600000000000016</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0.46549999999999991</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0.50750000000000006</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="9">
+        <v>0.50399999999999989</v>
+      </c>
+      <c r="U29" s="40">
+        <f t="shared" si="13"/>
+        <v>0.49233333333333329</v>
+      </c>
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="9">
+        <v>0.64450000000000007</v>
+      </c>
+      <c r="N30" s="40">
+        <f t="shared" si="12"/>
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="U30" s="40">
+        <f t="shared" si="13"/>
+        <v>0.48900000000000005</v>
+      </c>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="N31" s="40">
+        <f t="shared" si="12"/>
+        <v>0.51149999999999995</v>
+      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0.49750000000000005</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0.49700000000000005</v>
+      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="20">
+        <v>0.53050000000000019</v>
+      </c>
+      <c r="U31" s="41">
+        <f t="shared" si="13"/>
+        <v>0.50833333333333341</v>
+      </c>
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="e">
+        <f t="shared" ref="C32:F32" si="14">AVERAGE(C27:C31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="42">
+        <v>3</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" ref="J32:M32" si="15">AVERAGE(J27:J31)</f>
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="15"/>
+        <v>0.61740000000000006</v>
+      </c>
+      <c r="L32" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="36">
+        <f t="shared" si="15"/>
+        <v>0.63150000000000006</v>
+      </c>
+      <c r="O32" s="42">
+        <v>5</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" ref="Q32:T32" si="16">AVERAGE(Q27:Q31)</f>
+        <v>0.48469999999999996</v>
+      </c>
+      <c r="R32" s="37">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="12">
+        <f t="shared" si="16"/>
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="V32" s="8"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="12"/>
+      <c r="V33" s="8"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0.86349999999999993</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="9">
+        <v>0.76749999999999985</v>
+      </c>
+      <c r="N35" s="40">
+        <f>AVERAGE(J35:M35)</f>
+        <v>0.72199999999999986</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0.54299999999999993</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="9">
+        <v>0.52850000000000008</v>
+      </c>
+      <c r="U35" s="40">
+        <f>AVERAGE(Q35:T35)</f>
+        <v>0.53549999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="9">
+        <v>0.78950000000000009</v>
+      </c>
+      <c r="N36" s="40">
+        <f t="shared" ref="N36:N39" si="17">AVERAGE(J36:M36)</f>
+        <v>0.75850000000000006</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.51750000000000007</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="9">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="U36" s="40">
+        <f t="shared" ref="U36:U39" si="18">AVERAGE(Q36:T36)</f>
+        <v>0.52850000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9">
+        <v>0.85549999999999993</v>
+      </c>
+      <c r="N37" s="41">
+        <f t="shared" si="17"/>
+        <v>0.8135</v>
+      </c>
+      <c r="O37" s="26"/>
+      <c r="P37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="9">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="U37" s="41">
+        <f t="shared" si="18"/>
+        <v>0.55766666666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0.54799999999999993</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="9">
+        <v>0.72049999999999981</v>
+      </c>
+      <c r="N38" s="40">
+        <f t="shared" si="17"/>
+        <v>0.65766666666666662</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0.54949999999999988</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="9">
+        <v>0.5555000000000001</v>
+      </c>
+      <c r="U38" s="40">
+        <f t="shared" si="18"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="N39" s="40">
+        <f t="shared" si="17"/>
+        <v>0.48833333333333334</v>
+      </c>
+      <c r="O39" s="26"/>
+      <c r="P39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="9">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="U39" s="40">
+        <f t="shared" si="18"/>
+        <v>0.49833333333333335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="e">
+        <f t="shared" ref="C40:F40" si="19">AVERAGE(C35:C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="1" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="43">
+        <v>3</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" ref="J40:M40" si="20">AVERAGE(J35:J39)</f>
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="K40" s="13">
+        <f>AVERAGE(K35:K39)</f>
+        <v>0.58310000000000006</v>
+      </c>
+      <c r="L40" s="13" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="14">
+        <f t="shared" si="20"/>
+        <v>0.73359999999999992</v>
+      </c>
+      <c r="O40" s="43">
+        <v>3</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" ref="Q40:T40" si="21">AVERAGE(Q35:Q39)</f>
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" si="21"/>
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="S40" s="13" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="39">
+        <f t="shared" si="21"/>
+        <v>0.54180000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="O35:O39"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="O11:O15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="O3:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>